--- a/ApiShedule2022/bin/Debug/net5.0/Raspisanie/_24_29_oct.xlsx
+++ b/ApiShedule2022/bin/Debug/net5.0/Raspisanie/_24_29_oct.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <x:si>
     <x:t>УТВЕРЖДАЮ</x:t>
   </x:si>
@@ -1706,19 +1706,70 @@
     <x:t>Суббота</x:t>
   </x:si>
   <x:si>
+    <x:t>1. Астрономия Колотвина М.Г. 
+Основной корпус-Аудитория 313</x:t>
+  </x:si>
+  <x:si>
     <x:t>Иностранный язык 
 Сергеева Н.В. 
 Основной корпус-Аудитория 102</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">1. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Информатика  
 Коршиков Д.С. 
 Основной корпус-Аудитория 209</x:t>
   </x:si>
   <x:si>
-    <x:t>МДК.02.01 Администрирование сетевых операционных систем 
-Парасовченко Г.И. 
+    <x:t>1. Физическая культура Никитина В.Л.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Менеджмент в профессиональной деятельности Мунасыпова К.Р. 
+Основной корпус-Аудитория 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Элементы высшей математики 
+Зеленина С.В. 
+Производственный корпус-Аудитория 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. МДК.02.01 Администрирование сетевых операционных систем  Парасовченко Г.И. 
 Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Русский язык Мякушина И.В. 
+Производственный корпус-Аудитория 45</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Математика Литвиненко О.Д. 
+Производственный корпус-Аудитория 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Математика Зеленина С.В. 
+Производственный корпус-Аудитория 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Основы алгоритмизации и программирования Балакин О.Д. 
+Основной корпус-Аудитория 407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. МДК.04.01 Внедрение и поддержка компьютерных систем Андреева Л.В. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Иностранный язык в профессиональной деятельности Лягута В.В. 
+Производственный корпус-Аудитория 49А</x:t>
   </x:si>
   <x:si>
     <x:t>Информационные технологии в профессиональной деятельности 
@@ -1731,14 +1782,17 @@
 Производственный корпус-Аудитория 24</x:t>
   </x:si>
   <x:si>
+    <x:t>2. МДК.11.01 Технология разработки и защиты баз данных Лукьяненко О.В. 
+Основной корпус-Актовый зал</x:t>
+  </x:si>
+  <x:si>
     <x:t>МДК.11.01 Технология разработки и защиты баз данных 
 Лукьяненко О.В. 
 Основной корпус-Актовый зал</x:t>
   </x:si>
   <x:si>
-    <x:t>МДК 05.01 Проектирование и дизайн информационных систем 
-Бушуева О.О. 
-Основной корпус-Аудитория 306</x:t>
+    <x:t>2. МДК.02.01 Администрирование сетевых операционных систем Парасовченко Г.И. 
+Основной корпус-Аудитория 405</x:t>
   </x:si>
   <x:si>
     <x:t>МДК.03.02 Безопасность компьютерных сетей 
@@ -1746,8 +1800,73 @@
 Основной корпус-Аудитория 202</x:t>
   </x:si>
   <x:si>
-    <x:t>Физика 
-Колотвина М.Г. 
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Математика Литвиненко О.Д. 
+Производственный корпус-Аудитория 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. Физическая культура 
+Никитина В.Л. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Математика Жеколдина Р.Р. 
+Производственный корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Физика Колотвина М.Г. 
+Основной корпус-Аудитория 313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Математика Зеленина С.В. 
+Производственный корпус-Аудитория 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК 06.01 Внедрение ИС 
+Бикимов А.Ж. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Иностранный язык в профессиональной деятельности Лягута В.В. 
+Производственный корпус-Аудитория 49А</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК.04.01 Внедрение и поддержка компьютерных систем Андреева Л.В. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК.11.01 Технология разработки и защиты баз данных Лукьяненко О.В. 
+Основной корпус-Актовый зал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК.02.01 Администрирование сетевых операционных систем Парасовченко Г.И. 
+Основной корпус-Аудитория 202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК 05.01 Проектирование и дизайн информационных систем Бушуева О.О. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Математика Литвиненко О.Д. 
+Производственный корпус-Аудитория 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. История Мунасыпова К.Р. 
+Основной корпус-Аудитория 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Математика Жеколдина Р.Р. 
+Производственный корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Физика Колотвина М.Г. 
 Основной корпус-Аудитория 313</x:t>
   </x:si>
   <x:si>
@@ -1766,19 +1885,66 @@
 Основной корпус-Аудитория 209</x:t>
   </x:si>
   <x:si>
+    <x:t>4. Инженерная и компьютерная графика 
+Павельев А.А. 
+Основной корпус-Аудитория 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК.02.01 Администрирование сетевых операционных систем Парасовченко Г.И. 
+Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК 05.01 Проектирование и дизайн информационных систем Бушуева О.О. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК 05.02 Разработка кода информационных систем Селищева О.И. 
+Основной корпус-Аудитория 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК 05.01 Проектирование и дизайн информационных систем Коршиков Д.С. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК.01.02 Поддержка и тестирование программных модулей  Малышев А.О. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Системное программирование 
+Балакин О.Д. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Инженерная и компьютерная графика 
+Павельев А.А. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
     <x:t>МДК 05.01 Проектирование и дизайн информационных систем 
 Коршиков Д.С. 
 Основной корпус-Аудитория 306</x:t>
   </x:si>
   <x:si>
-    <x:t>Системное программирование 
-Балакин О.Д. 
-Основной корпус-Аудитория 402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Инженерная и компьютерная графика 
-Павельев А.А. 
-Основной корпус-Аудитория 402</x:t>
+    <x:t>5. ДОП (Борисов В.В.) 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Моделирование и анализ программного обеспечения Вареников Л.А. 
+Основной корпус-Аудитория 403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. МДК.01.03 Разработка мобильных приложений Лукьяненко О.В. 
+Основной корпус-Аудитория 404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. МДК.01.02 Поддержка и тестирование программных модулей  Малышев А.О. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. МДК.01.03 Разработка мобильных приложений Лукьяненко О.В. 
+Основной корпус-Аудитория 404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. ДОП (Борисов В.В.) 105</x:t>
   </x:si>
   <x:si>
     <x:t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2022 Aspose Pty Ltd.</x:t>
@@ -2336,7 +2502,7 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="80">
+  <x:cellStyleXfs count="82">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment/>
       <x:protection/>
@@ -2455,8 +2621,14 @@
     <x:xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="52">
+  <x:cellXfs count="55">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment/>
     </x:xf>
@@ -2648,6 +2820,18 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3167,6 +3351,27 @@
       <x:c r="AM1" s="0" t="s"/>
       <x:c r="AN1" s="0" t="s"/>
       <x:c r="AO1" s="0" t="s"/>
+      <x:c r="AP1" s="0" t="s"/>
+      <x:c r="AQ1" s="0" t="s"/>
+      <x:c r="AR1" s="0" t="s"/>
+      <x:c r="AS1" s="0" t="s"/>
+      <x:c r="AT1" s="0" t="s"/>
+      <x:c r="AU1" s="0" t="s"/>
+      <x:c r="AV1" s="0" t="s"/>
+      <x:c r="AW1" s="0" t="s"/>
+      <x:c r="AX1" s="0" t="s"/>
+      <x:c r="AY1" s="0" t="s"/>
+      <x:c r="AZ1" s="0" t="s"/>
+      <x:c r="BA1" s="0" t="s"/>
+      <x:c r="BB1" s="0" t="s"/>
+      <x:c r="BC1" s="0" t="s"/>
+      <x:c r="BD1" s="0" t="s"/>
+      <x:c r="BE1" s="0" t="s"/>
+      <x:c r="BF1" s="0" t="s"/>
+      <x:c r="BG1" s="0" t="s"/>
+      <x:c r="BH1" s="0" t="s"/>
+      <x:c r="BI1" s="0" t="s"/>
+      <x:c r="BJ1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:62" s="32" customFormat="1" ht="12" customHeight="1">
       <x:c r="A2" s="33" t="s"/>
@@ -3205,6 +3410,36 @@
       <x:c r="AD2" s="34" t="s"/>
       <x:c r="AE2" s="34" t="s"/>
       <x:c r="AF2" s="34" t="s"/>
+      <x:c r="AG2" s="32" t="s"/>
+      <x:c r="AH2" s="32" t="s"/>
+      <x:c r="AI2" s="32" t="s"/>
+      <x:c r="AJ2" s="32" t="s"/>
+      <x:c r="AK2" s="32" t="s"/>
+      <x:c r="AL2" s="32" t="s"/>
+      <x:c r="AM2" s="32" t="s"/>
+      <x:c r="AN2" s="32" t="s"/>
+      <x:c r="AO2" s="32" t="s"/>
+      <x:c r="AP2" s="32" t="s"/>
+      <x:c r="AQ2" s="32" t="s"/>
+      <x:c r="AR2" s="32" t="s"/>
+      <x:c r="AS2" s="32" t="s"/>
+      <x:c r="AT2" s="32" t="s"/>
+      <x:c r="AU2" s="32" t="s"/>
+      <x:c r="AV2" s="32" t="s"/>
+      <x:c r="AW2" s="32" t="s"/>
+      <x:c r="AX2" s="32" t="s"/>
+      <x:c r="AY2" s="32" t="s"/>
+      <x:c r="AZ2" s="32" t="s"/>
+      <x:c r="BA2" s="32" t="s"/>
+      <x:c r="BB2" s="32" t="s"/>
+      <x:c r="BC2" s="32" t="s"/>
+      <x:c r="BD2" s="32" t="s"/>
+      <x:c r="BE2" s="32" t="s"/>
+      <x:c r="BF2" s="32" t="s"/>
+      <x:c r="BG2" s="32" t="s"/>
+      <x:c r="BH2" s="32" t="s"/>
+      <x:c r="BI2" s="32" t="s"/>
+      <x:c r="BJ2" s="32" t="s"/>
     </x:row>
     <x:row r="3" spans="1:62" s="32" customFormat="1" ht="18" customHeight="1">
       <x:c r="A3" s="33" t="s"/>
@@ -3241,6 +3476,36 @@
       <x:c r="AD3" s="37" t="s"/>
       <x:c r="AE3" s="37" t="s"/>
       <x:c r="AF3" s="37" t="s"/>
+      <x:c r="AG3" s="32" t="s"/>
+      <x:c r="AH3" s="32" t="s"/>
+      <x:c r="AI3" s="32" t="s"/>
+      <x:c r="AJ3" s="32" t="s"/>
+      <x:c r="AK3" s="32" t="s"/>
+      <x:c r="AL3" s="32" t="s"/>
+      <x:c r="AM3" s="32" t="s"/>
+      <x:c r="AN3" s="32" t="s"/>
+      <x:c r="AO3" s="32" t="s"/>
+      <x:c r="AP3" s="32" t="s"/>
+      <x:c r="AQ3" s="32" t="s"/>
+      <x:c r="AR3" s="32" t="s"/>
+      <x:c r="AS3" s="32" t="s"/>
+      <x:c r="AT3" s="32" t="s"/>
+      <x:c r="AU3" s="32" t="s"/>
+      <x:c r="AV3" s="32" t="s"/>
+      <x:c r="AW3" s="32" t="s"/>
+      <x:c r="AX3" s="32" t="s"/>
+      <x:c r="AY3" s="32" t="s"/>
+      <x:c r="AZ3" s="32" t="s"/>
+      <x:c r="BA3" s="32" t="s"/>
+      <x:c r="BB3" s="32" t="s"/>
+      <x:c r="BC3" s="32" t="s"/>
+      <x:c r="BD3" s="32" t="s"/>
+      <x:c r="BE3" s="32" t="s"/>
+      <x:c r="BF3" s="32" t="s"/>
+      <x:c r="BG3" s="32" t="s"/>
+      <x:c r="BH3" s="32" t="s"/>
+      <x:c r="BI3" s="32" t="s"/>
+      <x:c r="BJ3" s="32" t="s"/>
     </x:row>
     <x:row r="4" spans="1:62" s="32" customFormat="1" ht="12.75" customHeight="1">
       <x:c r="A4" s="33" t="s"/>
@@ -3275,6 +3540,36 @@
       <x:c r="AD4" s="37" t="s"/>
       <x:c r="AE4" s="37" t="s"/>
       <x:c r="AF4" s="37" t="s"/>
+      <x:c r="AG4" s="32" t="s"/>
+      <x:c r="AH4" s="32" t="s"/>
+      <x:c r="AI4" s="32" t="s"/>
+      <x:c r="AJ4" s="32" t="s"/>
+      <x:c r="AK4" s="32" t="s"/>
+      <x:c r="AL4" s="32" t="s"/>
+      <x:c r="AM4" s="32" t="s"/>
+      <x:c r="AN4" s="32" t="s"/>
+      <x:c r="AO4" s="32" t="s"/>
+      <x:c r="AP4" s="32" t="s"/>
+      <x:c r="AQ4" s="32" t="s"/>
+      <x:c r="AR4" s="32" t="s"/>
+      <x:c r="AS4" s="32" t="s"/>
+      <x:c r="AT4" s="32" t="s"/>
+      <x:c r="AU4" s="32" t="s"/>
+      <x:c r="AV4" s="32" t="s"/>
+      <x:c r="AW4" s="32" t="s"/>
+      <x:c r="AX4" s="32" t="s"/>
+      <x:c r="AY4" s="32" t="s"/>
+      <x:c r="AZ4" s="32" t="s"/>
+      <x:c r="BA4" s="32" t="s"/>
+      <x:c r="BB4" s="32" t="s"/>
+      <x:c r="BC4" s="32" t="s"/>
+      <x:c r="BD4" s="32" t="s"/>
+      <x:c r="BE4" s="32" t="s"/>
+      <x:c r="BF4" s="32" t="s"/>
+      <x:c r="BG4" s="32" t="s"/>
+      <x:c r="BH4" s="32" t="s"/>
+      <x:c r="BI4" s="32" t="s"/>
+      <x:c r="BJ4" s="32" t="s"/>
     </x:row>
     <x:row r="5" spans="1:62" s="7" customFormat="1" ht="24.6" customHeight="1">
       <x:c r="A5" s="38" t="s">
@@ -7371,8 +7666,8 @@
       <x:c r="B36" s="39" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C36" s="47" t="s">
-        <x:v>76</x:v>
+      <x:c r="C36" s="52" t="s">
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D36" s="47" t="s"/>
       <x:c r="E36" s="47" t="s">
@@ -7382,7 +7677,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G36" s="47" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="H36" s="47" t="s"/>
       <x:c r="I36" s="47" t="s">
@@ -7400,26 +7695,30 @@
       <x:c r="M36" s="47" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="N36" s="47" t="s"/>
-      <x:c r="O36" s="47" t="s">
-        <x:v>181</x:v>
+      <x:c r="N36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="s">
+        <x:v>378</x:v>
       </x:c>
       <x:c r="P36" s="47" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="Q36" s="47" t="s">
-        <x:v>376</x:v>
-      </x:c>
-      <x:c r="R36" s="47" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="S36" s="47" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="T36" s="47" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="U36" s="47" t="s"/>
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="R36" s="53" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="S36" s="52" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="T36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="U36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
       <x:c r="V36" s="47" t="s">
         <x:v>272</x:v>
       </x:c>
@@ -7439,12 +7738,14 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="AD36" s="47" t="s"/>
-      <x:c r="AE36" s="47" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="AF36" s="47" t="s"/>
-      <x:c r="AG36" s="47" t="s">
-        <x:v>93</x:v>
+      <x:c r="AE36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="AF36" s="52" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="AG36" s="52" t="s">
+        <x:v>382</x:v>
       </x:c>
       <x:c r="AH36" s="47" t="s">
         <x:v>208</x:v>
@@ -7466,24 +7767,36 @@
       <x:c r="AS36" s="47" t="s"/>
       <x:c r="AT36" s="47" t="s"/>
       <x:c r="AU36" s="47" t="s"/>
-      <x:c r="AV36" s="47" t="s">
-        <x:v>101</x:v>
+      <x:c r="AV36" s="53" t="s">
+        <x:v>377</x:v>
       </x:c>
       <x:c r="AW36" s="19" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="AX36" s="47" t="s">
+      <x:c r="AX36" s="52" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="AY36" s="53" t="s">
         <x:v>377</x:v>
       </x:c>
-      <x:c r="AY36" s="47" t="s"/>
       <x:c r="AZ36" s="47" t="s"/>
       <x:c r="BA36" s="47" t="s"/>
       <x:c r="BB36" s="47" t="s"/>
-      <x:c r="BC36" s="47" t="s"/>
-      <x:c r="BD36" s="47" t="s"/>
-      <x:c r="BE36" s="47" t="s"/>
-      <x:c r="BF36" s="47" t="s"/>
-      <x:c r="BG36" s="47" t="s"/>
+      <x:c r="BC36" s="53" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="BD36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="BE36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="BF36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="BG36" s="53" t="s">
+        <x:v>377</x:v>
+      </x:c>
       <x:c r="BH36" s="47" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -7497,14 +7810,14 @@
       <x:c r="B37" s="39" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C37" s="47" t="s">
-        <x:v>105</x:v>
+      <x:c r="C37" s="52" t="s">
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D37" s="47" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="E37" s="47" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F37" s="47" t="s">
         <x:v>112</x:v>
@@ -7530,9 +7843,11 @@
       <x:c r="M37" s="47" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="N37" s="47" t="s"/>
-      <x:c r="O37" s="47" t="s">
-        <x:v>81</x:v>
+      <x:c r="N37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="O37" s="53" t="s">
+        <x:v>386</x:v>
       </x:c>
       <x:c r="P37" s="47" t="s">
         <x:v>73</x:v>
@@ -7540,17 +7855,17 @@
       <x:c r="Q37" s="47" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="R37" s="47" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="S37" s="47" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="T37" s="47" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="U37" s="47" t="s">
-        <x:v>214</x:v>
+      <x:c r="R37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="S37" s="52" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="T37" s="52" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="U37" s="53" t="s">
+        <x:v>385</x:v>
       </x:c>
       <x:c r="V37" s="47" t="s">
         <x:v>307</x:v>
@@ -7579,14 +7894,14 @@
       <x:c r="AD37" s="47" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="AE37" s="47" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="AF37" s="47" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="AG37" s="47" t="s">
-        <x:v>125</x:v>
+      <x:c r="AE37" s="52" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="AF37" s="52" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="AG37" s="52" t="s">
+        <x:v>391</x:v>
       </x:c>
       <x:c r="AH37" s="47" t="s">
         <x:v>87</x:v>
@@ -7596,11 +7911,11 @@
       </x:c>
       <x:c r="AJ37" s="47" t="s"/>
       <x:c r="AK37" s="47" t="s">
-        <x:v>378</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="AL37" s="47" t="s"/>
       <x:c r="AM37" s="47" t="s">
-        <x:v>379</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="AN37" s="47" t="s"/>
       <x:c r="AO37" s="47" t="s"/>
@@ -7612,31 +7927,41 @@
       <x:c r="AS37" s="47" t="s"/>
       <x:c r="AT37" s="47" t="s"/>
       <x:c r="AU37" s="47" t="s"/>
-      <x:c r="AV37" s="47" t="s">
-        <x:v>380</x:v>
+      <x:c r="AV37" s="52" t="s">
+        <x:v>394</x:v>
       </x:c>
       <x:c r="AW37" s="47" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="AX37" s="47" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="AY37" s="47" t="s"/>
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="AX37" s="52" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="AY37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
       <x:c r="AZ37" s="47" t="s"/>
       <x:c r="BA37" s="47" t="s"/>
       <x:c r="BB37" s="47" t="s"/>
-      <x:c r="BC37" s="47" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="BD37" s="47" t="s"/>
-      <x:c r="BE37" s="47" t="s"/>
-      <x:c r="BF37" s="47" t="s"/>
-      <x:c r="BG37" s="47" t="s"/>
+      <x:c r="BC37" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="BD37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="BE37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="BF37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="BG37" s="53" t="s">
+        <x:v>385</x:v>
+      </x:c>
       <x:c r="BH37" s="47" t="s">
-        <x:v>382</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="BI37" s="47" t="s">
-        <x:v>382</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="BJ37" s="47" t="s">
         <x:v>175</x:v>
@@ -7648,7 +7973,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="C38" s="47" t="s">
-        <x:v>81</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D38" s="47" t="s">
         <x:v>105</x:v>
@@ -7657,7 +7982,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F38" s="47" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="G38" s="47" t="s">
         <x:v>103</x:v>
@@ -7678,11 +8003,11 @@
       <x:c r="M38" s="47" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="N38" s="47" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O38" s="47" t="s">
-        <x:v>108</x:v>
+      <x:c r="N38" s="52" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="O38" s="52" t="s">
+        <x:v>400</x:v>
       </x:c>
       <x:c r="P38" s="47" t="s">
         <x:v>182</x:v>
@@ -7690,17 +8015,17 @@
       <x:c r="Q38" s="47" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="R38" s="47" t="s">
-        <x:v>228</x:v>
+      <x:c r="R38" s="52" t="s">
+        <x:v>401</x:v>
       </x:c>
       <x:c r="S38" s="47" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="T38" s="47" t="s">
-        <x:v>383</x:v>
-      </x:c>
-      <x:c r="U38" s="47" t="s">
-        <x:v>253</x:v>
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T38" s="52" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="U38" s="52" t="s">
+        <x:v>403</x:v>
       </x:c>
       <x:c r="V38" s="47" t="s">
         <x:v>187</x:v>
@@ -7729,14 +8054,14 @@
       <x:c r="AD38" s="47" t="s">
         <x:v>340</x:v>
       </x:c>
-      <x:c r="AE38" s="47" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="AF38" s="47" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="AG38" s="47" t="s">
-        <x:v>117</x:v>
+      <x:c r="AE38" s="52" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="AF38" s="52" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="AG38" s="52" t="s">
+        <x:v>406</x:v>
       </x:c>
       <x:c r="AH38" s="47" t="s">
         <x:v>220</x:v>
@@ -7745,14 +8070,14 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="AJ38" s="47" t="s">
-        <x:v>378</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="AK38" s="47" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="AL38" s="47" t="s"/>
       <x:c r="AM38" s="47" t="s">
-        <x:v>379</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="AN38" s="47" t="s"/>
       <x:c r="AO38" s="47" t="s">
@@ -7768,28 +8093,36 @@
       <x:c r="AU38" s="47" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="AV38" s="47" t="s">
-        <x:v>380</x:v>
+      <x:c r="AV38" s="52" t="s">
+        <x:v>407</x:v>
       </x:c>
       <x:c r="AW38" s="47" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="AX38" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="AY38" s="47" t="s">
-        <x:v>377</x:v>
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="AX38" s="52" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="AY38" s="52" t="s">
+        <x:v>408</x:v>
       </x:c>
       <x:c r="AZ38" s="47" t="s"/>
       <x:c r="BA38" s="47" t="s"/>
       <x:c r="BB38" s="47" t="s"/>
-      <x:c r="BC38" s="47" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="BD38" s="47" t="s"/>
-      <x:c r="BE38" s="47" t="s"/>
-      <x:c r="BF38" s="47" t="s"/>
-      <x:c r="BG38" s="47" t="s"/>
+      <x:c r="BC38" s="52" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="BD38" s="53" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="BE38" s="53" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="BF38" s="53" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="BG38" s="53" t="s">
+        <x:v>411</x:v>
+      </x:c>
       <x:c r="BH38" s="47" t="s"/>
       <x:c r="BI38" s="47" t="s">
         <x:v>175</x:v>
@@ -7803,7 +8136,9 @@
       <x:c r="B39" s="39" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="C39" s="47" t="s"/>
+      <x:c r="C39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="D39" s="47" t="s">
         <x:v>128</x:v>
       </x:c>
@@ -7811,24 +8146,32 @@
       <x:c r="F39" s="47" t="s"/>
       <x:c r="G39" s="47" t="s"/>
       <x:c r="H39" s="47" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="I39" s="47" t="s"/>
       <x:c r="J39" s="47" t="s"/>
       <x:c r="K39" s="47" t="s"/>
       <x:c r="L39" s="47" t="s"/>
       <x:c r="M39" s="47" t="s"/>
-      <x:c r="N39" s="47" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="O39" s="47" t="s"/>
+      <x:c r="N39" s="52" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="O39" s="52" t="s">
+        <x:v>413</x:v>
+      </x:c>
       <x:c r="P39" s="47" t="s"/>
       <x:c r="Q39" s="47" t="s"/>
-      <x:c r="R39" s="47" t="s"/>
-      <x:c r="S39" s="47" t="s"/>
-      <x:c r="T39" s="47" t="s"/>
-      <x:c r="U39" s="47" t="s">
-        <x:v>383</x:v>
+      <x:c r="R39" s="52" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="S39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="U39" s="52" t="s">
+        <x:v>415</x:v>
       </x:c>
       <x:c r="V39" s="47" t="s"/>
       <x:c r="W39" s="47" t="s"/>
@@ -7845,11 +8188,15 @@
       <x:c r="AD39" s="47" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="AE39" s="47" t="s"/>
+      <x:c r="AE39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AF39" s="47" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="AG39" s="47" t="s"/>
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AG39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AH39" s="47" t="s"/>
       <x:c r="AI39" s="47" t="s">
         <x:v>204</x:v>
@@ -7858,7 +8205,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="AK39" s="47" t="s">
-        <x:v>384</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="AL39" s="47" t="s">
         <x:v>119</x:v>
@@ -7868,14 +8215,14 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="AO39" s="47" t="s">
-        <x:v>385</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="AP39" s="47" t="s"/>
       <x:c r="AQ39" s="47" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="AR39" s="47" t="s">
-        <x:v>386</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="AS39" s="47" t="s">
         <x:v>124</x:v>
@@ -7886,15 +8233,17 @@
       <x:c r="AU39" s="47" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="AV39" s="47" t="s"/>
+      <x:c r="AV39" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AW39" s="47" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="AX39" s="47" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="AY39" s="47" t="s">
-        <x:v>377</x:v>
+      <x:c r="AX39" s="52" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="AY39" s="52" t="s">
+        <x:v>420</x:v>
       </x:c>
       <x:c r="AZ39" s="47" t="s">
         <x:v>266</x:v>
@@ -7905,20 +8254,20 @@
       <x:c r="BB39" s="47" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="BC39" s="47" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="BD39" s="47" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="BE39" s="47" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="BF39" s="47" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="BG39" s="47" t="s">
-        <x:v>388</x:v>
+      <x:c r="BC39" s="52" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="BD39" s="52" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="BE39" s="52" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="BF39" s="52" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="BG39" s="52" t="s">
+        <x:v>425</x:v>
       </x:c>
       <x:c r="BH39" s="47" t="s"/>
       <x:c r="BI39" s="47" t="s"/>
@@ -7929,7 +8278,9 @@
       <x:c r="B40" s="39" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="C40" s="47" t="s"/>
+      <x:c r="C40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="D40" s="47" t="s"/>
       <x:c r="E40" s="47" t="s"/>
       <x:c r="F40" s="47" t="s"/>
@@ -7940,14 +8291,26 @@
       <x:c r="K40" s="47" t="s"/>
       <x:c r="L40" s="47" t="s"/>
       <x:c r="M40" s="47" t="s"/>
-      <x:c r="N40" s="47" t="s"/>
-      <x:c r="O40" s="47" t="s"/>
+      <x:c r="N40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="O40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="P40" s="47" t="s"/>
       <x:c r="Q40" s="47" t="s"/>
-      <x:c r="R40" s="47" t="s"/>
-      <x:c r="S40" s="47" t="s"/>
-      <x:c r="T40" s="47" t="s"/>
-      <x:c r="U40" s="47" t="s"/>
+      <x:c r="R40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="S40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="U40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="V40" s="47" t="s"/>
       <x:c r="W40" s="47" t="s"/>
       <x:c r="X40" s="47" t="s"/>
@@ -7957,9 +8320,15 @@
       <x:c r="AB40" s="47" t="s"/>
       <x:c r="AC40" s="47" t="s"/>
       <x:c r="AD40" s="47" t="s"/>
-      <x:c r="AE40" s="47" t="s"/>
-      <x:c r="AF40" s="47" t="s"/>
-      <x:c r="AG40" s="47" t="s"/>
+      <x:c r="AE40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AF40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AG40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AH40" s="47" t="s"/>
       <x:c r="AI40" s="47" t="s"/>
       <x:c r="AJ40" s="47" t="s">
@@ -7974,14 +8343,14 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="AO40" s="47" t="s">
-        <x:v>385</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="AP40" s="47" t="s"/>
       <x:c r="AQ40" s="47" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="AR40" s="47" t="s">
-        <x:v>386</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="AS40" s="47" t="s">
         <x:v>224</x:v>
@@ -7992,11 +8361,15 @@
       <x:c r="AU40" s="47" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="AV40" s="47" t="s"/>
+      <x:c r="AV40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AW40" s="47" t="s"/>
-      <x:c r="AX40" s="47" t="s"/>
-      <x:c r="AY40" s="47" t="s">
-        <x:v>389</x:v>
+      <x:c r="AX40" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AY40" s="52" t="s">
+        <x:v>426</x:v>
       </x:c>
       <x:c r="AZ40" s="47" t="s">
         <x:v>266</x:v>
@@ -8005,22 +8378,22 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="BB40" s="47" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="BC40" s="19" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="BD40" s="47" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="BE40" s="47" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="BF40" s="47" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="BG40" s="47" t="s">
-        <x:v>244</x:v>
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="BC40" s="54" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="BD40" s="52" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="BE40" s="52" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="BF40" s="52" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="BG40" s="52" t="s">
+        <x:v>431</x:v>
       </x:c>
       <x:c r="BH40" s="47" t="s"/>
       <x:c r="BI40" s="47" t="s"/>
@@ -8031,7 +8404,9 @@
       <x:c r="B41" s="39" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="C41" s="47" t="s"/>
+      <x:c r="C41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="D41" s="47" t="s"/>
       <x:c r="E41" s="47" t="s"/>
       <x:c r="F41" s="47" t="s"/>
@@ -8042,14 +8417,26 @@
       <x:c r="K41" s="47" t="s"/>
       <x:c r="L41" s="47" t="s"/>
       <x:c r="M41" s="47" t="s"/>
-      <x:c r="N41" s="47" t="s"/>
-      <x:c r="O41" s="47" t="s"/>
+      <x:c r="N41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="O41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="P41" s="47" t="s"/>
       <x:c r="Q41" s="47" t="s"/>
-      <x:c r="R41" s="47" t="s"/>
-      <x:c r="S41" s="47" t="s"/>
-      <x:c r="T41" s="47" t="s"/>
-      <x:c r="U41" s="47" t="s"/>
+      <x:c r="R41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="S41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="U41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="V41" s="47" t="s"/>
       <x:c r="W41" s="47" t="s"/>
       <x:c r="X41" s="47" t="s"/>
@@ -8059,9 +8446,15 @@
       <x:c r="AB41" s="47" t="s"/>
       <x:c r="AC41" s="47" t="s"/>
       <x:c r="AD41" s="47" t="s"/>
-      <x:c r="AE41" s="47" t="s"/>
-      <x:c r="AF41" s="47" t="s"/>
-      <x:c r="AG41" s="47" t="s"/>
+      <x:c r="AE41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AF41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AG41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AH41" s="47" t="s"/>
       <x:c r="AI41" s="47" t="s"/>
       <x:c r="AJ41" s="47" t="s"/>
@@ -8071,7 +8464,7 @@
       </x:c>
       <x:c r="AM41" s="47" t="s"/>
       <x:c r="AN41" s="47" t="s">
-        <x:v>385</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="AO41" s="47" t="s"/>
       <x:c r="AP41" s="47" t="s"/>
@@ -8088,10 +8481,16 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="AU41" s="47" t="s"/>
-      <x:c r="AV41" s="47" t="s"/>
+      <x:c r="AV41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AW41" s="47" t="s"/>
-      <x:c r="AX41" s="47" t="s"/>
-      <x:c r="AY41" s="47" t="s"/>
+      <x:c r="AX41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="AY41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="AZ41" s="47" t="s">
         <x:v>266</x:v>
       </x:c>
@@ -8099,20 +8498,22 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="BB41" s="47" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="BC41" s="47" t="s"/>
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="BC41" s="47" t="s">
+        <x:v>398</x:v>
+      </x:c>
       <x:c r="BD41" s="47" t="s">
-        <x:v>289</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="BE41" s="47" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="BF41" s="47" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="BG41" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="BF41" s="52" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="BG41" s="54" t="s">
+        <x:v>433</x:v>
       </x:c>
       <x:c r="BH41" s="47" t="s"/>
       <x:c r="BI41" s="47" t="s"/>
@@ -8232,7 +8633,7 @@
   <x:sheetData>
     <x:row r="5" spans="1:1" ht="23.25" customHeight="1">
       <x:c r="A5" s="51" t="s">
-        <x:v>390</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
